--- a/rfidhex.xlsx
+++ b/rfidhex.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Backup\backup\lowvolt.ru\randotar\windsirf\rfid_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E50BF-409C-4E40-911B-86C35C0FF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2CF08-611E-4960-8B44-985068741296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{555CE221-DAAC-4D9A-9984-8609DC698076}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11505" xr2:uid="{555CE221-DAAC-4D9A-9984-8609DC698076}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +100,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539965CB-919E-4666-BBCA-A4ACF4600A81}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +484,7 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -496,15 +500,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -520,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -528,7 +533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -536,7 +541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -544,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -552,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
